--- a/templates/export/tickets.xlsx
+++ b/templates/export/tickets.xlsx
@@ -13,10 +13,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1694720288" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1694720288" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1694720288" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1694720288"/>
+      <pm:revision xmlns:pm="smNativeData" day="1695148655" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1695148655" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1695148655" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1695148655"/>
     </ext>
   </extLst>
 </workbook>
@@ -40,7 +40,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1694720288">
+                <pm:charSpec xmlns:pm="smNativeData" id="1695148655">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -48,7 +48,7 @@
               </ext>
             </extLst>
           </rPr>
-          <t>jx:area(lastCell="L9")</t>
+          <t>jx:area(lastCell="G9")</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1694720288">
+                <pm:charSpec xmlns:pm="smNativeData" id="1695148655">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -72,7 +72,7 @@
               </ext>
             </extLst>
           </rPr>
-          <t xml:space="preserve">jx:each(items="tickets", var="ticket", lastCell="G9" multisheet="sheetNames")
+          <t xml:space="preserve">jx:each(items="tickets", var="device", lastCell="G9" multisheet="sheetNames")
 </t>
         </r>
       </text>
@@ -89,7 +89,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1694720288">
+                <pm:charSpec xmlns:pm="smNativeData" id="1695148655">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -97,7 +97,7 @@
               </ext>
             </extLst>
           </rPr>
-          <t>jx:each(items="tickets", var="ticket", lastCell="G9")</t>
+          <t>jx:each(items="device.objects", var="ticket", lastCell="G9")</t>
         </r>
       </text>
     </comment>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Tipo de Reporte:</t>
   </si>
@@ -114,7 +114,16 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>${tickets}</t>
+    <t>Dispositivo:</t>
+  </si>
+  <si>
+    <t>${device.deviceName}</t>
+  </si>
+  <si>
+    <t>Grupo:</t>
+  </si>
+  <si>
+    <t>${device.groupName}</t>
   </si>
   <si>
     <t>Periodo:</t>
@@ -123,19 +132,13 @@
     <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
   </si>
   <si>
-    <t>Dispositivo</t>
-  </si>
-  <si>
-    <t>Salida</t>
-  </si>
-  <si>
     <t>Geocerca</t>
   </si>
   <si>
-    <t>Hora Programada</t>
+    <t>Hora esperada</t>
   </si>
   <si>
-    <t>Hora de ingreso</t>
+    <t>Hora de entrada</t>
   </si>
   <si>
     <t>Diferencia</t>
@@ -144,32 +147,35 @@
     <t>Castigo</t>
   </si>
   <si>
+    <t>Salida</t>
+  </si>
+  <si>
     <t>${ticket.deviceName}</t>
   </si>
   <si>
-    <t>${ticket.salida}</t>
+    <t>${ticket.geofence}</t>
   </si>
   <si>
-    <t xml:space="preserve">${ticket.geofence} </t>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss",ticket.expectedTime, locale, timezone)}</t>
   </si>
   <si>
-    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", ticket.expectedTime locale, timezone)}</t>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss",ticket.enterTime, locale, timezone)}</t>
   </si>
   <si>
-    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", ticket.enterTime locale, timezone)}</t>
+    <t>${ticket.difference.toString()}</t>
   </si>
   <si>
-    <t>${ticket.difference}</t>
+    <t>${ticket.punishment.toString()}</t>
   </si>
   <si>
-    <t>${ticket.punishment}</t>
+    <t>${ticket.salida}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -180,6 +186,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="DD/MM/YYYY\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[h]&quot; h &quot;m&quot; min &quot;s&quot; s&quot;"/>
+    <numFmt numFmtId="166" formatCode="[h]&quot; h &quot;m&quot; min&quot;"/>
     <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
   <fonts count="10">
@@ -190,7 +197,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1694720288" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -205,7 +212,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1694720288" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -221,7 +228,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1694720288" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -236,7 +243,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1694720288" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -252,7 +259,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1694720288" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -267,7 +274,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1694720288" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -280,13 +287,28 @@
       <family val="2"/>
       <b/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1694720288" fgClr="FFFFFF" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
-            <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
+          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" fgClr="FFFFFF" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="200" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -298,7 +320,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1694720288" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -313,22 +335,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1694720288" fgClr="0070C0" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1694720288" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" fgClr="0070C0" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -337,7 +344,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,15 +352,32 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1694720288" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+            <pm:shade xmlns:pm="smNativeData" id="1695148655" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1695148655" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -364,13 +388,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1694720288" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1695148655" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -386,7 +410,28 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1694720288"/>
+          <pm:border xmlns:pm="smNativeData" id="1695148655"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1695148655">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
         </ext>
       </extLst>
     </border>
@@ -405,7 +450,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1694720288">
+          <pm:border xmlns:pm="smNativeData" id="1695148655">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -421,7 +466,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -429,7 +474,30 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1694720288">
+          <pm:border xmlns:pm="smNativeData" id="1695148655">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1695148655">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -439,21 +507,44 @@
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1694720288"/>
+          <pm:border xmlns:pm="smNativeData" id="1695148655">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1695148655"/>
         </ext>
       </extLst>
     </border>
@@ -461,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -476,7 +567,7 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1694720288" l="960" r="0" t="0" b="0" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1695148655" l="960" r="0" t="0" b="0" textRotation="0"/>
         </ext>
       </extLst>
     </xf>
@@ -487,35 +578,42 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1694720288" l="960" r="0" t="0" b="0" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1695148655" l="960" r="0" t="0" b="0" textRotation="0"/>
         </ext>
       </extLst>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,10 +623,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1694720288" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1695148655" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1694720288" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1695148655" count="4">
         <pm:color name="Color 24" rgb="444444"/>
         <pm:color name="Color 25" rgb="0070C0"/>
         <pm:color name="Color 26" rgb="5B9BD5"/>
@@ -549,8 +647,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1856105</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -560,7 +658,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_IGEDZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAF8AYAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAEAAAAtwG1AgAAAAAAAAAAdjwAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_b+oJZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAAfj4AAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -568,7 +666,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9828530" cy="9620250"/>
+          <a:ext cx="10158730" cy="9620250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -597,8 +695,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1856105</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -608,7 +706,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_IGEDZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAEAAAAtwG1AgAAAAAAAAAAdjwAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_b+oJZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAAfj4AAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -616,7 +714,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9828530" cy="9620250"/>
+          <a:ext cx="10158730" cy="9620250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -645,8 +743,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1856105</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -656,7 +754,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_IGEDZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAEAAAAtwG1AgAAAAAAAAAAdjwAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_b+oJZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAAfj4AAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -664,7 +762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9828530" cy="9620250"/>
+          <a:ext cx="10158730" cy="9620250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,186 +1042,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
     <col min="1" max="1" width="20.857143" customWidth="1"/>
-    <col min="2" max="2" width="21.071429" customWidth="1"/>
-    <col min="3" max="3" width="35.750000" customWidth="1"/>
-    <col min="4" max="4" width="34.419643" customWidth="1"/>
-    <col min="5" max="5" width="38.562500" customWidth="1"/>
-    <col min="6" max="6" width="19.000000" customWidth="1"/>
-    <col min="7" max="7" width="16.000000" customWidth="1"/>
-    <col min="8" max="8" width="13.714286" customWidth="1"/>
-    <col min="9" max="9" width="13.857143" customWidth="1"/>
-    <col min="10" max="10" width="16.000000" customWidth="1"/>
-    <col min="11" max="11" width="14.571429" customWidth="1"/>
-    <col min="12" max="12" width="17.571429" customWidth="1"/>
-    <col min="13" max="28" width="8.714286" customWidth="1"/>
-    <col min="29" max="1025" width="14.142857" customWidth="1"/>
+    <col min="2" max="2" width="47.857143" customWidth="1"/>
+    <col min="3" max="4" width="20.857143" customWidth="1"/>
+    <col min="5" max="5" width="16.000000" customWidth="1"/>
+    <col min="6" max="6" width="16.285714" customWidth="1"/>
+    <col min="7" max="7" width="14.571429" customWidth="1"/>
+    <col min="8" max="27" width="8.714286" customWidth="1"/>
+    <col min="28" max="1025" width="14.142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="C1"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>5</v>
+    <row r="8" spans="1:7" s="11" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12" t="s">
+    </row>
+    <row r="9" spans="1:7" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="E9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="F9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:1" ht="15.75" customHeight="1"/>
@@ -2109,7 +2169,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1694720288" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1695148655" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2118,10 +2178,10 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1694720288" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1694720288" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1694720288" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1694720288" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1695148655" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1695148655" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1695148655" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1695148655" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2129,7 +2189,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1694720288" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1695148655" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/templates/export/tickets.xlsx
+++ b/templates/export/tickets.xlsx
@@ -13,10 +13,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1695148655" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1695148655" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1695148655" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1695148655"/>
+      <pm:revision xmlns:pm="smNativeData" day="1695747971" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1695747971" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1695747971" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1695747971"/>
     </ext>
   </extLst>
 </workbook>
@@ -40,7 +40,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1695148655">
+                <pm:charSpec xmlns:pm="smNativeData" id="1695747971">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -48,7 +48,7 @@
               </ext>
             </extLst>
           </rPr>
-          <t>jx:area(lastCell="G9")</t>
+          <t>jx:area(lastCell="I9")</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1695148655">
+                <pm:charSpec xmlns:pm="smNativeData" id="1695747971">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -72,7 +72,7 @@
               </ext>
             </extLst>
           </rPr>
-          <t xml:space="preserve">jx:each(items="tickets", var="device", lastCell="G9" multisheet="sheetNames")
+          <t xml:space="preserve">jx:each(items="tickets", var="device", lastCell="I9" multisheet="sheetNames")
 </t>
         </r>
       </text>
@@ -89,7 +89,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1695148655">
+                <pm:charSpec xmlns:pm="smNativeData" id="1695747971">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -97,7 +97,7 @@
               </ext>
             </extLst>
           </rPr>
-          <t>jx:each(items="device.objects", var="ticket", lastCell="G9")</t>
+          <t>jx:each(items="device.objects", var="ticket", lastCell="I9")</t>
         </r>
       </text>
     </comment>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Tipo de Reporte:</t>
   </si>
@@ -132,6 +132,12 @@
     <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
   </si>
   <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Subruta</t>
+  </si>
+  <si>
     <t>Geocerca</t>
   </si>
   <si>
@@ -147,10 +153,57 @@
     <t>Castigo</t>
   </si>
   <si>
-    <t>Salida</t>
+    <r>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF444444"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="444444">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="200"/>
+              <pm:ea sz="200"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>device</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF333333"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="333333">
+              <pm:latin face="Calibri" sz="200" weight="normal" i="0"/>
+              <pm:cs sz="200"/>
+              <pm:ea sz="200"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>.deviceName}</t>
+    </r>
   </si>
   <si>
-    <t>${ticket.deviceName}</t>
+    <t>${ticket.group}</t>
+  </si>
+  <si>
+    <t>${ticket.subroute}</t>
   </si>
   <si>
     <t>${ticket.geofence}</t>
@@ -166,9 +219,6 @@
   </si>
   <si>
     <t>${ticket.punishment.toString()}</t>
-  </si>
-  <si>
-    <t>${ticket.salida}</t>
   </si>
 </sst>
 </file>
@@ -189,7 +239,7 @@
     <numFmt numFmtId="166" formatCode="[h]&quot; h &quot;m&quot; min&quot;"/>
     <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -197,7 +247,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -212,7 +262,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -228,7 +278,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -243,7 +293,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -259,7 +309,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -274,7 +324,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -290,7 +340,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -305,7 +355,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -320,7 +370,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -335,8 +385,23 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695148655" fgClr="0070C0" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="0070C0" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF444444"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="444444" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
           </pm:charSpec>
@@ -360,7 +425,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1695148655" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+            <pm:shade xmlns:pm="smNativeData" id="1695747971" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
@@ -371,7 +436,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1695148655" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+            <pm:shade xmlns:pm="smNativeData" id="1695747971" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
@@ -388,7 +453,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1695148655" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1695747971" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -410,7 +475,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695148655"/>
+          <pm:border xmlns:pm="smNativeData" id="1695747971"/>
         </ext>
       </extLst>
     </border>
@@ -429,7 +494,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695148655">
+          <pm:border xmlns:pm="smNativeData" id="1695747971">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -450,7 +515,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695148655">
+          <pm:border xmlns:pm="smNativeData" id="1695747971">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -474,7 +539,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695148655">
+          <pm:border xmlns:pm="smNativeData" id="1695747971">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -497,7 +562,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695148655">
+          <pm:border xmlns:pm="smNativeData" id="1695747971">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -521,7 +586,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695148655">
+          <pm:border xmlns:pm="smNativeData" id="1695747971">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -544,7 +609,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695148655"/>
+          <pm:border xmlns:pm="smNativeData" id="1695747971"/>
         </ext>
       </extLst>
     </border>
@@ -552,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -567,7 +632,7 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1695148655" l="960" r="0" t="0" b="0" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1695747971" l="960" r="0" t="0" b="0" textRotation="0"/>
         </ext>
       </extLst>
     </xf>
@@ -578,7 +643,7 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1695148655" l="960" r="0" t="0" b="0" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1695747971" l="960" r="0" t="0" b="0" textRotation="0"/>
         </ext>
       </extLst>
     </xf>
@@ -610,9 +675,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,10 +685,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1695148655" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1695747971" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1695148655" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1695747971" count="4">
         <pm:color name="Color 24" rgb="444444"/>
         <pm:color name="Color 25" rgb="0070C0"/>
         <pm:color name="Color 26" rgb="5B9BD5"/>
@@ -658,7 +720,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_b+oJZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAAfj4AAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_gw8TZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -666,7 +728,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158730" cy="9620250"/>
+          <a:ext cx="8930005" cy="9620250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -706,7 +768,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_b+oJZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAAfj4AAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_gw8TZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -714,7 +776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158730" cy="9620250"/>
+          <a:ext cx="8930005" cy="9620250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -754,7 +816,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_b+oJZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAAfj4AAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_gw8TZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -762,7 +824,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158730" cy="9620250"/>
+          <a:ext cx="8930005" cy="9620250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1042,16 +1104,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
     <col min="1" max="1" width="20.857143" customWidth="1"/>
-    <col min="2" max="2" width="47.857143" customWidth="1"/>
+    <col min="2" max="2" width="30.580357" customWidth="1"/>
     <col min="3" max="4" width="20.857143" customWidth="1"/>
     <col min="5" max="5" width="16.000000" customWidth="1"/>
     <col min="6" max="6" width="16.285714" customWidth="1"/>
@@ -1139,7 +1201,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" s="11" customFormat="1" ht="29.25" customHeight="1">
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1214,7 @@
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1161,29 +1223,37 @@
       <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="H8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8"/>
     </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" ht="18.75" customHeight="1">
+    <row r="9" spans="1:9" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="G9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:1" ht="15.75" customHeight="1"/>
@@ -2169,7 +2239,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1695148655" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1695747971" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2178,10 +2248,10 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1695148655" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1695148655" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1695148655" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1695148655" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1695747971" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1695747971" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1695747971" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1695747971" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2189,7 +2259,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1695148655" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1695747971" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/templates/export/tickets.xlsx
+++ b/templates/export/tickets.xlsx
@@ -13,10 +13,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1695747971" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1695747971" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1695747971" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1695747971"/>
+      <pm:revision xmlns:pm="smNativeData" day="1696014515" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1696014515" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1696014515" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1696014515"/>
     </ext>
   </extLst>
 </workbook>
@@ -40,7 +40,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1695747971">
+                <pm:charSpec xmlns:pm="smNativeData" id="1696014515">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -64,7 +64,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1695747971">
+                <pm:charSpec xmlns:pm="smNativeData" id="1696014515">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -89,7 +89,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1695747971">
+                <pm:charSpec xmlns:pm="smNativeData" id="1696014515">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -141,13 +141,13 @@
     <t>Geocerca</t>
   </si>
   <si>
-    <t>Hora esperada</t>
+    <t>Hora checada</t>
   </si>
   <si>
-    <t>Hora de entrada</t>
+    <t>Hora salida</t>
   </si>
   <si>
-    <t>Diferencia</t>
+    <t>Adelantados o quemados</t>
   </si>
   <si>
     <t>Castigo</t>
@@ -167,7 +167,7 @@
         <color rgb="FF444444"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="444444">
+            <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="444444">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -188,7 +188,7 @@
         <color rgb="FF333333"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="333333">
+            <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="333333">
               <pm:latin face="Calibri" sz="200" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -209,7 +209,7 @@
     <t>${ticket.geofence}</t>
   </si>
   <si>
-    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss",ticket.expectedTime, locale, timezone)}</t>
+    <t>${dateTool.format("HH:mm:ss",ticket.expectedTime, locale, timezone)}</t>
   </si>
   <si>
     <t>${dateTool.format("YYYY-MM-dd HH:mm:ss",ticket.enterTime, locale, timezone)}</t>
@@ -247,7 +247,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -262,7 +262,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -278,7 +278,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -293,7 +293,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -309,7 +309,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -324,7 +324,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -340,7 +340,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -355,7 +355,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -370,7 +370,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -385,7 +385,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="0070C0" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="0070C0" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -400,7 +400,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695747971" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -409,7 +409,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,7 +425,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1695747971" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+            <pm:shade xmlns:pm="smNativeData" id="1696014515" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
@@ -436,7 +436,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1695747971" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+            <pm:shade xmlns:pm="smNativeData" id="1696014515" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
@@ -453,13 +453,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1695747971" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1696014515" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1696014515" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -475,7 +486,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695747971"/>
+          <pm:border xmlns:pm="smNativeData" id="1696014515"/>
         </ext>
       </extLst>
     </border>
@@ -494,7 +505,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695747971">
+          <pm:border xmlns:pm="smNativeData" id="1696014515">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -515,7 +526,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695747971">
+          <pm:border xmlns:pm="smNativeData" id="1696014515">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -539,7 +550,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695747971">
+          <pm:border xmlns:pm="smNativeData" id="1696014515">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -562,7 +573,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695747971">
+          <pm:border xmlns:pm="smNativeData" id="1696014515">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -586,7 +597,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695747971">
+          <pm:border xmlns:pm="smNativeData" id="1696014515">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -609,7 +620,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695747971"/>
+          <pm:border xmlns:pm="smNativeData" id="1696014515"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1696014515"/>
         </ext>
       </extLst>
     </border>
@@ -632,7 +662,7 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1695747971" l="960" r="0" t="0" b="0" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1696014515" l="960" r="0" t="0" b="0" textRotation="0"/>
         </ext>
       </extLst>
     </xf>
@@ -643,7 +673,7 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1695747971" l="960" r="0" t="0" b="0" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1696014515" l="960" r="0" t="0" b="0" textRotation="0"/>
         </ext>
       </extLst>
     </xf>
@@ -685,10 +715,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1695747971" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1696014515" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1695747971" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1696014515" count="4">
         <pm:color name="Color 24" rgb="444444"/>
         <pm:color name="Color 25" rgb="0070C0"/>
         <pm:color name="Color 26" rgb="5B9BD5"/>
@@ -720,7 +750,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_gw8TZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_syAXZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -768,7 +798,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_gw8TZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_syAXZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -816,7 +846,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_gw8TZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_syAXZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -1107,7 +1137,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -2239,7 +2269,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1695747971" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1696014515" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2248,10 +2278,10 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1695747971" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1695747971" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1695747971" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1695747971" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1696014515" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1696014515" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1696014515" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1696014515" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2259,7 +2289,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1695747971" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1696014515" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/templates/export/tickets.xlsx
+++ b/templates/export/tickets.xlsx
@@ -13,10 +13,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1696014515" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1696014515" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1696014515" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1696014515"/>
+      <pm:revision xmlns:pm="smNativeData" day="1696271094" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1696271094" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1696271094" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1696271094"/>
     </ext>
   </extLst>
 </workbook>
@@ -40,7 +40,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1696014515">
+                <pm:charSpec xmlns:pm="smNativeData" id="1696271094">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -64,7 +64,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1696014515">
+                <pm:charSpec xmlns:pm="smNativeData" id="1696271094">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -89,7 +89,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1696014515">
+                <pm:charSpec xmlns:pm="smNativeData" id="1696271094">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -167,7 +167,7 @@
         <color rgb="FF444444"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="444444">
+            <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="444444">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -188,7 +188,7 @@
         <color rgb="FF333333"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="333333">
+            <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="333333">
               <pm:latin face="Calibri" sz="200" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -212,7 +212,7 @@
     <t>${dateTool.format("HH:mm:ss",ticket.expectedTime, locale, timezone)}</t>
   </si>
   <si>
-    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss",ticket.enterTime, locale, timezone)}</t>
+    <t>${dateTool.format("HH:mm:ss",ticket.enterTime, locale, timezone)}</t>
   </si>
   <si>
     <t>${ticket.difference.toString()}</t>
@@ -247,7 +247,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -262,7 +262,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -278,7 +278,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -293,7 +293,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -309,7 +309,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -324,7 +324,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -340,7 +340,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -355,7 +355,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -370,7 +370,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -385,7 +385,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="0070C0" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="0070C0" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -400,7 +400,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696014515" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -409,7 +409,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,7 +425,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1696014515" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+            <pm:shade xmlns:pm="smNativeData" id="1696271094" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
@@ -436,7 +436,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1696014515" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+            <pm:shade xmlns:pm="smNativeData" id="1696271094" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
@@ -453,24 +453,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1696014515" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1696014515" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+            <pm:shade xmlns:pm="smNativeData" id="1696271094" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -486,7 +475,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696014515"/>
+          <pm:border xmlns:pm="smNativeData" id="1696271094"/>
         </ext>
       </extLst>
     </border>
@@ -505,7 +494,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696014515">
+          <pm:border xmlns:pm="smNativeData" id="1696271094">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -526,7 +515,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696014515">
+          <pm:border xmlns:pm="smNativeData" id="1696271094">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -550,7 +539,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696014515">
+          <pm:border xmlns:pm="smNativeData" id="1696271094">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -573,7 +562,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696014515">
+          <pm:border xmlns:pm="smNativeData" id="1696271094">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -597,7 +586,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696014515">
+          <pm:border xmlns:pm="smNativeData" id="1696271094">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -620,26 +609,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696014515"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696014515"/>
+          <pm:border xmlns:pm="smNativeData" id="1696271094"/>
         </ext>
       </extLst>
     </border>
@@ -662,7 +632,7 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1696014515" l="960" r="0" t="0" b="0" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1696271094" l="960" r="0" t="0" b="0" textRotation="0"/>
         </ext>
       </extLst>
     </xf>
@@ -673,7 +643,7 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1696014515" l="960" r="0" t="0" b="0" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1696271094" l="960" r="0" t="0" b="0" textRotation="0"/>
         </ext>
       </extLst>
     </xf>
@@ -715,10 +685,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1696014515" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1696271094" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1696014515" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1696271094" count="4">
         <pm:color name="Color 24" rgb="444444"/>
         <pm:color name="Color 25" rgb="0070C0"/>
         <pm:color name="Color 26" rgb="5B9BD5"/>
@@ -750,7 +720,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_syAXZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_9gobZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -798,7 +768,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_syAXZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_9gobZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -846,7 +816,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_syAXZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_9gobZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -1137,7 +1107,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -2269,7 +2239,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1696014515" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1696271094" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2278,10 +2248,10 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1696014515" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1696014515" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1696014515" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1696014515" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1696271094" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1696271094" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1696271094" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1696271094" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2289,7 +2259,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1696014515" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1696271094" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/templates/export/tickets.xlsx
+++ b/templates/export/tickets.xlsx
@@ -13,10 +13,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1696271094" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1696271094" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1696271094" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1696271094"/>
+      <pm:revision xmlns:pm="smNativeData" day="1699472563" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1699472563" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1699472563" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1699472563"/>
     </ext>
   </extLst>
 </workbook>
@@ -40,7 +40,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1696271094">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699472563">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -64,7 +64,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1696271094">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699472563">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -89,7 +89,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1696271094">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699472563">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Tipo de Reporte:</t>
   </si>
@@ -153,6 +153,9 @@
     <t>Castigo</t>
   </si>
   <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
     <r>
       <t>${</t>
     </r>
@@ -167,7 +170,7 @@
         <color rgb="FF444444"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="444444">
+            <pm:charSpec xmlns:pm="smNativeData" id="1699472563" fgClr="444444">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -188,7 +191,7 @@
         <color rgb="FF333333"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="333333">
+            <pm:charSpec xmlns:pm="smNativeData" id="1699472563" fgClr="333333">
               <pm:latin face="Calibri" sz="200" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -247,7 +250,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699472563" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -262,7 +265,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699472563" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -278,7 +281,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699472563" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -293,7 +296,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699472563" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -309,7 +312,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699472563" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -324,7 +327,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699472563" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -340,7 +343,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699472563" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -355,7 +358,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699472563" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -370,7 +373,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699472563" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -385,7 +388,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="0070C0" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699472563" fgClr="0070C0" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -400,7 +403,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696271094" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699472563" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -409,7 +412,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,7 +428,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1696271094" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699472563" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
@@ -436,7 +439,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1696271094" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699472563" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
@@ -453,13 +456,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1696271094" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699472563" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1699472563" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -475,7 +489,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696271094"/>
+          <pm:border xmlns:pm="smNativeData" id="1699472563"/>
         </ext>
       </extLst>
     </border>
@@ -494,7 +508,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696271094">
+          <pm:border xmlns:pm="smNativeData" id="1699472563">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -515,7 +529,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696271094">
+          <pm:border xmlns:pm="smNativeData" id="1699472563">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -539,7 +553,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696271094">
+          <pm:border xmlns:pm="smNativeData" id="1699472563">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -562,7 +576,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696271094">
+          <pm:border xmlns:pm="smNativeData" id="1699472563">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -586,7 +600,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696271094">
+          <pm:border xmlns:pm="smNativeData" id="1699472563">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -609,7 +623,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696271094"/>
+          <pm:border xmlns:pm="smNativeData" id="1699472563"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1699472563"/>
         </ext>
       </extLst>
     </border>
@@ -632,7 +665,7 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1696271094" l="960" r="0" t="0" b="0" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1699472563" l="960" r="0" t="0" b="0" textRotation="0"/>
         </ext>
       </extLst>
     </xf>
@@ -643,7 +676,7 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1696271094" l="960" r="0" t="0" b="0" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1699472563" l="960" r="0" t="0" b="0" textRotation="0"/>
         </ext>
       </extLst>
     </xf>
@@ -685,10 +718,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1696271094" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1699472563" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1696271094" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1699472563" count="4">
         <pm:color name="Color 24" rgb="444444"/>
         <pm:color name="Color 25" rgb="0070C0"/>
         <pm:color name="Color 26" rgb="5B9BD5"/>
@@ -720,7 +753,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_9gobZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_s+RLZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -768,7 +801,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_9gobZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_s+RLZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -816,7 +849,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_9gobZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_s+RLZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -1107,7 +1140,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -1118,7 +1151,9 @@
     <col min="5" max="5" width="16.000000" customWidth="1"/>
     <col min="6" max="6" width="16.285714" customWidth="1"/>
     <col min="7" max="7" width="14.571429" customWidth="1"/>
-    <col min="8" max="27" width="8.714286" customWidth="1"/>
+    <col min="8" max="8" width="8.714286" customWidth="1"/>
+    <col min="9" max="9" width="15.142857" customWidth="1"/>
+    <col min="10" max="27" width="8.714286" customWidth="1"/>
     <col min="28" max="1025" width="14.142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1226,34 +1261,36 @@
       <c r="H8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I8"/>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9"/>
+        <v>23</v>
+      </c>
+      <c r="I9" s="16"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:1" ht="15.75" customHeight="1"/>
@@ -2239,7 +2276,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1696271094" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1699472563" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2248,10 +2285,10 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1696271094" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1696271094" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1696271094" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1696271094" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1699472563" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1699472563" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1699472563" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1699472563" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2259,7 +2296,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1696271094" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1699472563" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
